--- a/xlsx/人本主义心理学_intext.xlsx
+++ b/xlsx/人本主义心理学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
   <si>
     <t>人本主义心理学</t>
   </si>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>心理學史</t>
+    <t>心理学史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Subfields_of_psychology</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E5%B8%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>異常心理學</t>
+    <t>异常心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B8%BA%E9%81%97%E4%BC%A0%E5%AD%A6</t>
@@ -71,19 +71,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物心理學</t>
+    <t>生物心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知心理學</t>
+    <t>认知心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>比較心理學</t>
+    <t>比较心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cross-cultural_psychology</t>
@@ -107,43 +107,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>發展心理學</t>
+    <t>发展心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>演化心理學</t>
+    <t>演化心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>實驗心理學</t>
+    <t>实验心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>數學心理學</t>
+    <t>数学心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經心理學</t>
+    <t>神经心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A0%BC%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>人格心理學</t>
+    <t>人格心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E9%9D%A2%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>正面心理學</t>
+    <t>正面心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Quantitative_psychology</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會心理學</t>
+    <t>社会心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%94%E7%94%A8%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -167,43 +167,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E8%A1%8C%E7%82%BA%E5%88%86%E6%9E%90</t>
   </si>
   <si>
-    <t>應用行為分析</t>
+    <t>应用行为分析</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E5%BA%8A%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>臨床心理學</t>
+    <t>临床心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8D%80%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社區心理學</t>
+    <t>社区心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>消費行為</t>
+    <t>消费行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%AE%E5%95%86%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>諮商心理學</t>
+    <t>谘商心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E7%A4%BE%E5%8D%80%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>批判社區心理學</t>
+    <t>批判社区心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>教育心理學</t>
+    <t>教育心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Environmental_psychology</t>
@@ -215,25 +215,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%9B%A0%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>人因工程學</t>
+    <t>人因工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BA%AD%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>法庭心理學</t>
+    <t>法庭心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>健康心理學</t>
+    <t>健康心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E8%88%87%E7%B5%84%E7%B9%94%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>工業與組織心理學</t>
+    <t>工业与组织心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ontological_hermeneutics</t>
@@ -275,13 +275,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>宗教心理學</t>
+    <t>宗教心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/School_psychology</t>
@@ -293,19 +293,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>運動心理學</t>
+    <t>运动心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>交通心理學</t>
+    <t>交通心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AD%B8%E7%A7%91%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>心理學學科列表</t>
+    <t>心理学学科列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_psychology_organizations</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>心理學家</t>
+    <t>心理学家</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_psychotherapies</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AD%B8%E6%B4%BE%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>心理學學派列表</t>
+    <t>心理学学派列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Timeline_of_psychology</t>
@@ -377,13 +377,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%93%B2%E6%96%AF</t>
   </si>
   <si>
-    <t>羅哲斯</t>
+    <t>罗哲斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>行為學派</t>
+    <t>行为学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E5%88%86%E6%9E%90</t>
@@ -395,61 +395,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>心理學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>人本主義</t>
+    <t>人本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%88%91%E5%AF%A6%E7%8F%BE</t>
   </si>
   <si>
-    <t>自我實現</t>
+    <t>自我实现</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%96%AF%E6%B4%9B</t>
   </si>
   <si>
-    <t>馬斯洛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E5%88%86%E6%9E%90%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>精神分析學派</t>
+    <t>精神分析学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E5%AE%9A%E8%AB%96</t>
   </si>
   <si>
-    <t>決定論</t>
+    <t>决定论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E5%9C%A8%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>存在主義</t>
+    <t>存在主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>哲學</t>
+    <t>哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%80%E8%A6%81%E9%9A%8E%E6%A2%AF</t>
   </si>
   <si>
-    <t>需要階梯</t>
+    <t>需要阶梯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E4%B8%AD%E5%BF%83%E6%B2%BB%E7%99%82</t>
   </si>
   <si>
-    <t>個人中心治療</t>
+    <t>个人中心治疗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%90%86%E5%BF%83</t>
@@ -461,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%94%E5%B0%8E</t>
   </si>
   <si>
-    <t>輔導</t>
+    <t>辅导</t>
   </si>
 </sst>
 </file>
@@ -2630,7 +2624,7 @@
         <v>125</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="G63" t="n">
         <v>51</v>
@@ -2656,10 +2650,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -2685,10 +2679,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -2714,10 +2708,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -2743,10 +2737,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2772,10 +2766,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2801,10 +2795,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2830,10 +2824,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2859,10 +2853,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2888,10 +2882,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -2917,10 +2911,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -2946,10 +2940,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
